--- a/2024 S1 Celseq2 Samlpe Generator/data/template_sheet.xlsx
+++ b/2024 S1 Celseq2 Samlpe Generator/data/template_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangsunchuangyu/Documents/GitHub/Genomics-Metadata-Multiplexing/2024 S1 Celseq2 Samlpe Generator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Genomics-Metadata-Multiplexing\2024 S1 Celseq2 Samlpe Generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F240F4-4D4D-F54D-9849-C7CF513758C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E3D1C-D751-49DC-986B-F5D2B5F499B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="760" windowWidth="32040" windowHeight="20140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="645" windowWidth="32040" windowHeight="20130" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1162">
   <si>
     <t>G000XXX</t>
   </si>
@@ -3519,6 +3519,13 @@
   </si>
   <si>
     <t>LCE123</t>
+  </si>
+  <si>
+    <t>Ref_Ctrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref_Ctrl</t>
   </si>
 </sst>
 </file>
@@ -3529,7 +3536,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3561,7 +3568,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3702,7 +3709,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4047,23 +4054,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="4" customWidth="1"/>
+    <col min="1" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
     <col min="8" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="139.33203125" customWidth="1"/>
-    <col min="12" max="22" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="11" width="139.375" customWidth="1"/>
+    <col min="12" max="22" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="25" customHeight="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4083,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="34">
+    <row r="2" spans="1:23" s="2" customFormat="1" ht="31.5">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -4111,7 +4118,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="47" customHeight="1">
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="47.1" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -4158,7 +4165,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1">
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4187,7 +4194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1">
+    <row r="5" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="2" customFormat="1">
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4249,7 +4256,7 @@
       <c r="U6"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:23" s="2" customFormat="1">
+    <row r="7" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4282,7 +4289,7 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="1:23" s="2" customFormat="1">
+    <row r="8" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4315,7 +4322,7 @@
       <c r="U8"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G9" s="14">
         <v>102</v>
@@ -4348,7 +4355,7 @@
       <c r="U9"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:23" s="2" customFormat="1">
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G10" s="14">
         <v>103</v>
@@ -4381,7 +4388,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:23" s="2" customFormat="1">
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4414,7 +4421,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="1:23" s="2" customFormat="1">
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="2" customFormat="1">
+    <row r="13" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4480,7 +4487,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="1:23" s="2" customFormat="1">
+    <row r="14" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4513,7 +4520,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" s="2" customFormat="1">
+    <row r="15" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4546,7 +4553,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="2" customFormat="1">
+    <row r="16" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4579,7 +4586,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1">
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4612,7 +4619,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1">
+    <row r="18" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4645,7 +4652,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1">
+    <row r="19" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4678,7 +4685,7 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1">
+    <row r="20" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4711,7 +4718,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1">
+    <row r="21" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4744,7 +4751,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1">
+    <row r="22" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4777,7 +4784,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1">
+    <row r="23" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4810,7 +4817,7 @@
       <c r="U23"/>
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:22" s="2" customFormat="1">
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4843,7 +4850,7 @@
       <c r="U24"/>
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:22" s="2" customFormat="1">
+    <row r="25" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A25" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4876,7 +4883,7 @@
       <c r="U25"/>
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:22" s="2" customFormat="1">
+    <row r="26" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A26" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1">
+    <row r="27" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A27" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="2" customFormat="1">
+    <row r="28" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A28" s="2" t="s">
         <v>1159</v>
       </c>
@@ -4967,7 +4974,7 @@
       <c r="U28"/>
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:22" s="2" customFormat="1">
+    <row r="29" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A29" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5000,7 +5007,7 @@
       <c r="U29"/>
       <c r="V29"/>
     </row>
-    <row r="30" spans="1:22" s="2" customFormat="1">
+    <row r="30" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A30" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5033,7 +5040,7 @@
       <c r="U30"/>
       <c r="V30"/>
     </row>
-    <row r="31" spans="1:22" s="2" customFormat="1">
+    <row r="31" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A31" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5066,7 +5073,7 @@
       <c r="U31"/>
       <c r="V31"/>
     </row>
-    <row r="32" spans="1:22" s="2" customFormat="1">
+    <row r="32" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A32" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5099,7 +5106,7 @@
       <c r="U32"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="1:22" s="2" customFormat="1">
+    <row r="33" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A33" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5132,7 +5139,7 @@
       <c r="U33"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="1:22" s="2" customFormat="1">
+    <row r="34" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A34" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5165,7 +5172,7 @@
       <c r="U34"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="1:22" s="2" customFormat="1">
+    <row r="35" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A35" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5198,7 +5205,7 @@
       <c r="U35"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="1:22" s="2" customFormat="1">
+    <row r="36" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A36" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5231,7 +5238,7 @@
       <c r="U36"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="1:22" s="2" customFormat="1">
+    <row r="37" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A37" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5264,7 +5271,7 @@
       <c r="U37"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" s="2" customFormat="1">
+    <row r="38" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A38" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5297,7 +5304,7 @@
       <c r="U38"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="1:22" s="2" customFormat="1">
+    <row r="39" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A39" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5330,7 +5337,7 @@
       <c r="U39"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="1:22" s="2" customFormat="1">
+    <row r="40" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A40" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5363,7 +5370,7 @@
       <c r="U40"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="1:22" s="2" customFormat="1">
+    <row r="41" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A41" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5396,7 +5403,7 @@
       <c r="U41"/>
       <c r="V41"/>
     </row>
-    <row r="42" spans="1:22" s="2" customFormat="1">
+    <row r="42" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A42" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5429,7 +5436,7 @@
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="1:22" s="2" customFormat="1">
+    <row r="43" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A43" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5462,7 +5469,7 @@
       <c r="U43"/>
       <c r="V43"/>
     </row>
-    <row r="44" spans="1:22" s="2" customFormat="1">
+    <row r="44" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A44" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5495,7 +5502,7 @@
       <c r="U44"/>
       <c r="V44"/>
     </row>
-    <row r="45" spans="1:22" s="2" customFormat="1">
+    <row r="45" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A45" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5528,7 +5535,7 @@
       <c r="U45"/>
       <c r="V45"/>
     </row>
-    <row r="46" spans="1:22" s="2" customFormat="1">
+    <row r="46" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A46" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5561,7 +5568,7 @@
       <c r="U46"/>
       <c r="V46"/>
     </row>
-    <row r="47" spans="1:22" s="2" customFormat="1">
+    <row r="47" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A47" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5594,7 +5601,7 @@
       <c r="U47"/>
       <c r="V47"/>
     </row>
-    <row r="48" spans="1:22" s="2" customFormat="1">
+    <row r="48" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A48" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5627,7 +5634,7 @@
       <c r="U48"/>
       <c r="V48"/>
     </row>
-    <row r="49" spans="1:22" s="2" customFormat="1">
+    <row r="49" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A49" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5660,7 +5667,7 @@
       <c r="U49"/>
       <c r="V49"/>
     </row>
-    <row r="50" spans="1:22" s="2" customFormat="1">
+    <row r="50" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A50" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5693,7 +5700,7 @@
       <c r="U50"/>
       <c r="V50"/>
     </row>
-    <row r="51" spans="1:22" s="2" customFormat="1">
+    <row r="51" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A51" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5726,7 +5733,7 @@
       <c r="U51"/>
       <c r="V51"/>
     </row>
-    <row r="52" spans="1:22" s="2" customFormat="1">
+    <row r="52" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A52" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5759,7 +5766,7 @@
       <c r="U52"/>
       <c r="V52"/>
     </row>
-    <row r="53" spans="1:22" s="2" customFormat="1">
+    <row r="53" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A53" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5792,7 +5799,7 @@
       <c r="U53"/>
       <c r="V53"/>
     </row>
-    <row r="54" spans="1:22" s="2" customFormat="1">
+    <row r="54" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A54" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5825,7 +5832,7 @@
       <c r="U54"/>
       <c r="V54"/>
     </row>
-    <row r="55" spans="1:22" s="2" customFormat="1">
+    <row r="55" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A55" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5858,7 +5865,7 @@
       <c r="U55"/>
       <c r="V55"/>
     </row>
-    <row r="56" spans="1:22" s="2" customFormat="1">
+    <row r="56" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A56" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5891,7 +5898,7 @@
       <c r="U56"/>
       <c r="V56"/>
     </row>
-    <row r="57" spans="1:22" s="2" customFormat="1">
+    <row r="57" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A57" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5924,7 +5931,7 @@
       <c r="U57"/>
       <c r="V57"/>
     </row>
-    <row r="58" spans="1:22" s="2" customFormat="1">
+    <row r="58" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A58" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5957,7 +5964,7 @@
       <c r="U58"/>
       <c r="V58"/>
     </row>
-    <row r="59" spans="1:22" s="2" customFormat="1">
+    <row r="59" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A59" s="2" t="s">
         <v>1159</v>
       </c>
@@ -5990,7 +5997,7 @@
       <c r="U59"/>
       <c r="V59"/>
     </row>
-    <row r="60" spans="1:22" s="2" customFormat="1">
+    <row r="60" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A60" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6023,7 +6030,7 @@
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61" spans="1:22" s="2" customFormat="1">
+    <row r="61" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A61" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6056,7 +6063,7 @@
       <c r="U61"/>
       <c r="V61"/>
     </row>
-    <row r="62" spans="1:22" s="2" customFormat="1">
+    <row r="62" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A62" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6089,7 +6096,7 @@
       <c r="U62"/>
       <c r="V62"/>
     </row>
-    <row r="63" spans="1:22" s="2" customFormat="1">
+    <row r="63" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A63" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6122,7 +6129,7 @@
       <c r="U63"/>
       <c r="V63"/>
     </row>
-    <row r="64" spans="1:22" s="2" customFormat="1">
+    <row r="64" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A64" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6155,7 +6162,7 @@
       <c r="U64"/>
       <c r="V64"/>
     </row>
-    <row r="65" spans="1:22" s="2" customFormat="1">
+    <row r="65" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A65" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6188,7 +6195,7 @@
       <c r="U65"/>
       <c r="V65"/>
     </row>
-    <row r="66" spans="1:22" s="2" customFormat="1">
+    <row r="66" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A66" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6221,7 +6228,7 @@
       <c r="U66"/>
       <c r="V66"/>
     </row>
-    <row r="67" spans="1:22" s="2" customFormat="1">
+    <row r="67" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A67" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6254,7 +6261,7 @@
       <c r="U67"/>
       <c r="V67"/>
     </row>
-    <row r="68" spans="1:22" s="2" customFormat="1">
+    <row r="68" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A68" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6287,7 +6294,7 @@
       <c r="U68"/>
       <c r="V68"/>
     </row>
-    <row r="69" spans="1:22" s="2" customFormat="1">
+    <row r="69" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A69" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6320,7 +6327,7 @@
       <c r="U69"/>
       <c r="V69"/>
     </row>
-    <row r="70" spans="1:22" s="2" customFormat="1">
+    <row r="70" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A70" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6353,7 +6360,7 @@
       <c r="U70"/>
       <c r="V70"/>
     </row>
-    <row r="71" spans="1:22" s="2" customFormat="1">
+    <row r="71" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A71" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6386,7 +6393,7 @@
       <c r="U71"/>
       <c r="V71"/>
     </row>
-    <row r="72" spans="1:22" s="2" customFormat="1">
+    <row r="72" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A72" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6419,7 +6426,7 @@
       <c r="U72"/>
       <c r="V72"/>
     </row>
-    <row r="73" spans="1:22" s="2" customFormat="1">
+    <row r="73" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A73" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6452,7 +6459,7 @@
       <c r="U73"/>
       <c r="V73"/>
     </row>
-    <row r="74" spans="1:22" s="2" customFormat="1">
+    <row r="74" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A74" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6485,7 +6492,7 @@
       <c r="U74"/>
       <c r="V74"/>
     </row>
-    <row r="75" spans="1:22" s="2" customFormat="1">
+    <row r="75" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A75" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6518,7 +6525,7 @@
       <c r="U75"/>
       <c r="V75"/>
     </row>
-    <row r="76" spans="1:22" s="2" customFormat="1">
+    <row r="76" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A76" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6551,7 +6558,7 @@
       <c r="U76"/>
       <c r="V76"/>
     </row>
-    <row r="77" spans="1:22" s="2" customFormat="1">
+    <row r="77" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A77" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6584,7 +6591,7 @@
       <c r="U77"/>
       <c r="V77"/>
     </row>
-    <row r="78" spans="1:22" s="2" customFormat="1">
+    <row r="78" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A78" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6617,7 +6624,7 @@
       <c r="U78"/>
       <c r="V78"/>
     </row>
-    <row r="79" spans="1:22" s="2" customFormat="1">
+    <row r="79" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A79" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6650,7 +6657,7 @@
       <c r="U79"/>
       <c r="V79"/>
     </row>
-    <row r="80" spans="1:22" s="2" customFormat="1">
+    <row r="80" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A80" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6683,7 +6690,7 @@
       <c r="U80"/>
       <c r="V80"/>
     </row>
-    <row r="81" spans="1:22" s="2" customFormat="1">
+    <row r="81" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A81" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6716,7 +6723,7 @@
       <c r="U81"/>
       <c r="V81"/>
     </row>
-    <row r="82" spans="1:22" s="2" customFormat="1">
+    <row r="82" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A82" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6749,7 +6756,7 @@
       <c r="U82"/>
       <c r="V82"/>
     </row>
-    <row r="83" spans="1:22" s="2" customFormat="1">
+    <row r="83" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A83" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6782,7 +6789,7 @@
       <c r="U83"/>
       <c r="V83"/>
     </row>
-    <row r="84" spans="1:22" s="2" customFormat="1">
+    <row r="84" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A84" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6815,7 +6822,7 @@
       <c r="U84"/>
       <c r="V84"/>
     </row>
-    <row r="85" spans="1:22" s="2" customFormat="1">
+    <row r="85" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A85" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6848,7 +6855,7 @@
       <c r="U85"/>
       <c r="V85"/>
     </row>
-    <row r="86" spans="1:22" s="2" customFormat="1">
+    <row r="86" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A86" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6881,7 +6888,7 @@
       <c r="U86"/>
       <c r="V86"/>
     </row>
-    <row r="87" spans="1:22" s="2" customFormat="1">
+    <row r="87" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A87" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6914,7 +6921,7 @@
       <c r="U87"/>
       <c r="V87"/>
     </row>
-    <row r="88" spans="1:22" s="2" customFormat="1">
+    <row r="88" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A88" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6947,7 +6954,7 @@
       <c r="U88"/>
       <c r="V88"/>
     </row>
-    <row r="89" spans="1:22" s="2" customFormat="1">
+    <row r="89" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A89" s="2" t="s">
         <v>1159</v>
       </c>
@@ -6980,7 +6987,7 @@
       <c r="U89"/>
       <c r="V89"/>
     </row>
-    <row r="90" spans="1:22" s="2" customFormat="1">
+    <row r="90" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A90" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7013,7 +7020,7 @@
       <c r="U90"/>
       <c r="V90"/>
     </row>
-    <row r="91" spans="1:22" s="2" customFormat="1">
+    <row r="91" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A91" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7046,7 +7053,7 @@
       <c r="U91"/>
       <c r="V91"/>
     </row>
-    <row r="92" spans="1:22" s="2" customFormat="1">
+    <row r="92" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A92" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7079,7 +7086,7 @@
       <c r="U92"/>
       <c r="V92"/>
     </row>
-    <row r="93" spans="1:22" s="2" customFormat="1">
+    <row r="93" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A93" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7112,7 +7119,7 @@
       <c r="U93"/>
       <c r="V93"/>
     </row>
-    <row r="94" spans="1:22" s="2" customFormat="1">
+    <row r="94" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A94" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7145,7 +7152,7 @@
       <c r="U94"/>
       <c r="V94"/>
     </row>
-    <row r="95" spans="1:22" s="2" customFormat="1">
+    <row r="95" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A95" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7178,7 +7185,7 @@
       <c r="U95"/>
       <c r="V95"/>
     </row>
-    <row r="96" spans="1:22" s="2" customFormat="1">
+    <row r="96" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A96" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7211,7 +7218,7 @@
       <c r="U96"/>
       <c r="V96"/>
     </row>
-    <row r="97" spans="1:22" s="2" customFormat="1">
+    <row r="97" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A97" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7244,7 +7251,7 @@
       <c r="U97"/>
       <c r="V97"/>
     </row>
-    <row r="98" spans="1:22" s="2" customFormat="1">
+    <row r="98" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A98" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7277,7 +7284,7 @@
       <c r="U98"/>
       <c r="V98"/>
     </row>
-    <row r="99" spans="1:22" s="2" customFormat="1">
+    <row r="99" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A99" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7310,7 +7317,7 @@
       <c r="U99"/>
       <c r="V99"/>
     </row>
-    <row r="100" spans="1:22" s="2" customFormat="1">
+    <row r="100" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A100" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7343,7 +7350,7 @@
       <c r="U100"/>
       <c r="V100"/>
     </row>
-    <row r="101" spans="1:22" s="2" customFormat="1">
+    <row r="101" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A101" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7376,7 +7383,7 @@
       <c r="U101"/>
       <c r="V101"/>
     </row>
-    <row r="102" spans="1:22" s="2" customFormat="1">
+    <row r="102" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A102" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7409,7 +7416,7 @@
       <c r="U102"/>
       <c r="V102"/>
     </row>
-    <row r="103" spans="1:22" s="2" customFormat="1">
+    <row r="103" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A103" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7442,7 +7449,7 @@
       <c r="U103"/>
       <c r="V103"/>
     </row>
-    <row r="104" spans="1:22" s="2" customFormat="1">
+    <row r="104" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A104" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7475,7 +7482,7 @@
       <c r="U104"/>
       <c r="V104"/>
     </row>
-    <row r="105" spans="1:22" s="2" customFormat="1">
+    <row r="105" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A105" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7508,7 +7515,7 @@
       <c r="U105"/>
       <c r="V105"/>
     </row>
-    <row r="106" spans="1:22" s="2" customFormat="1">
+    <row r="106" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A106" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7541,7 +7548,7 @@
       <c r="U106"/>
       <c r="V106"/>
     </row>
-    <row r="107" spans="1:22" s="2" customFormat="1">
+    <row r="107" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A107" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7574,7 +7581,7 @@
       <c r="U107"/>
       <c r="V107"/>
     </row>
-    <row r="108" spans="1:22" s="2" customFormat="1">
+    <row r="108" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A108" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7607,7 +7614,7 @@
       <c r="U108"/>
       <c r="V108"/>
     </row>
-    <row r="109" spans="1:22" s="2" customFormat="1">
+    <row r="109" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A109" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7640,7 +7647,7 @@
       <c r="U109"/>
       <c r="V109"/>
     </row>
-    <row r="110" spans="1:22" s="2" customFormat="1">
+    <row r="110" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A110" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7673,7 +7680,7 @@
       <c r="U110"/>
       <c r="V110"/>
     </row>
-    <row r="111" spans="1:22" s="2" customFormat="1">
+    <row r="111" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A111" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7706,7 +7713,7 @@
       <c r="U111"/>
       <c r="V111"/>
     </row>
-    <row r="112" spans="1:22" s="2" customFormat="1">
+    <row r="112" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A112" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7739,7 +7746,7 @@
       <c r="U112"/>
       <c r="V112"/>
     </row>
-    <row r="113" spans="1:22" s="2" customFormat="1">
+    <row r="113" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A113" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7772,7 +7779,7 @@
       <c r="U113"/>
       <c r="V113"/>
     </row>
-    <row r="114" spans="1:22" s="2" customFormat="1">
+    <row r="114" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A114" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7805,7 +7812,7 @@
       <c r="U114"/>
       <c r="V114"/>
     </row>
-    <row r="115" spans="1:22" s="2" customFormat="1">
+    <row r="115" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A115" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7838,7 +7845,7 @@
       <c r="U115"/>
       <c r="V115"/>
     </row>
-    <row r="116" spans="1:22" s="2" customFormat="1">
+    <row r="116" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A116" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7871,7 +7878,7 @@
       <c r="U116"/>
       <c r="V116"/>
     </row>
-    <row r="117" spans="1:22" s="2" customFormat="1">
+    <row r="117" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A117" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7904,7 +7911,7 @@
       <c r="U117"/>
       <c r="V117"/>
     </row>
-    <row r="118" spans="1:22" s="2" customFormat="1">
+    <row r="118" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A118" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7937,7 +7944,7 @@
       <c r="U118"/>
       <c r="V118"/>
     </row>
-    <row r="119" spans="1:22" s="2" customFormat="1">
+    <row r="119" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A119" s="2" t="s">
         <v>1159</v>
       </c>
@@ -7970,7 +7977,7 @@
       <c r="U119"/>
       <c r="V119"/>
     </row>
-    <row r="120" spans="1:22" s="2" customFormat="1">
+    <row r="120" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A120" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8003,7 +8010,7 @@
       <c r="U120"/>
       <c r="V120"/>
     </row>
-    <row r="121" spans="1:22" s="2" customFormat="1">
+    <row r="121" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A121" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8036,7 +8043,7 @@
       <c r="U121"/>
       <c r="V121"/>
     </row>
-    <row r="122" spans="1:22" s="2" customFormat="1">
+    <row r="122" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A122" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8069,7 +8076,7 @@
       <c r="U122"/>
       <c r="V122"/>
     </row>
-    <row r="123" spans="1:22" s="2" customFormat="1">
+    <row r="123" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A123" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8102,7 +8109,7 @@
       <c r="U123"/>
       <c r="V123"/>
     </row>
-    <row r="124" spans="1:22" s="2" customFormat="1">
+    <row r="124" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A124" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8135,7 +8142,7 @@
       <c r="U124"/>
       <c r="V124"/>
     </row>
-    <row r="125" spans="1:22" s="2" customFormat="1">
+    <row r="125" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A125" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8168,7 +8175,7 @@
       <c r="U125"/>
       <c r="V125"/>
     </row>
-    <row r="126" spans="1:22" s="2" customFormat="1">
+    <row r="126" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A126" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8201,7 +8208,7 @@
       <c r="U126"/>
       <c r="V126"/>
     </row>
-    <row r="127" spans="1:22" s="2" customFormat="1">
+    <row r="127" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A127" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8234,7 +8241,7 @@
       <c r="U127"/>
       <c r="V127"/>
     </row>
-    <row r="128" spans="1:22" s="2" customFormat="1">
+    <row r="128" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A128" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8267,7 +8274,7 @@
       <c r="U128"/>
       <c r="V128"/>
     </row>
-    <row r="129" spans="1:22" s="2" customFormat="1">
+    <row r="129" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A129" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8275,7 +8282,7 @@
         <v>387</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G129" s="14">
         <v>222</v>
@@ -8300,7 +8307,7 @@
       <c r="U129"/>
       <c r="V129"/>
     </row>
-    <row r="130" spans="1:22" s="2" customFormat="1">
+    <row r="130" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A130" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8308,7 +8315,7 @@
         <v>390</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G130" s="14">
         <v>223</v>
@@ -8333,7 +8340,7 @@
       <c r="U130"/>
       <c r="V130"/>
     </row>
-    <row r="131" spans="1:22" s="2" customFormat="1">
+    <row r="131" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A131" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8341,7 +8348,7 @@
         <v>393</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G131" s="14">
         <v>224</v>
@@ -8366,7 +8373,7 @@
       <c r="U131"/>
       <c r="V131"/>
     </row>
-    <row r="132" spans="1:22" s="2" customFormat="1">
+    <row r="132" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A132" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8374,7 +8381,7 @@
         <v>396</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G132" s="14">
         <v>225</v>
@@ -8399,7 +8406,7 @@
       <c r="U132"/>
       <c r="V132"/>
     </row>
-    <row r="133" spans="1:22" s="2" customFormat="1">
+    <row r="133" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A133" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8407,7 +8414,7 @@
         <v>399</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G133" s="14">
         <v>226</v>
@@ -8432,7 +8439,7 @@
       <c r="U133"/>
       <c r="V133"/>
     </row>
-    <row r="134" spans="1:22" s="2" customFormat="1">
+    <row r="134" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A134" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8440,7 +8447,7 @@
         <v>402</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G134" s="14">
         <v>227</v>
@@ -8465,7 +8472,7 @@
       <c r="U134"/>
       <c r="V134"/>
     </row>
-    <row r="135" spans="1:22" s="2" customFormat="1">
+    <row r="135" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A135" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8473,7 +8480,7 @@
         <v>405</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G135" s="14">
         <v>228</v>
@@ -8498,7 +8505,7 @@
       <c r="U135"/>
       <c r="V135"/>
     </row>
-    <row r="136" spans="1:22" s="2" customFormat="1">
+    <row r="136" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A136" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8506,7 +8513,7 @@
         <v>408</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G136" s="14">
         <v>229</v>
@@ -8531,7 +8538,7 @@
       <c r="U136"/>
       <c r="V136"/>
     </row>
-    <row r="137" spans="1:22" s="2" customFormat="1">
+    <row r="137" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A137" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8539,7 +8546,7 @@
         <v>411</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G137" s="14">
         <v>230</v>
@@ -8564,7 +8571,7 @@
       <c r="U137"/>
       <c r="V137"/>
     </row>
-    <row r="138" spans="1:22" s="2" customFormat="1">
+    <row r="138" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A138" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>414</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G138" s="14">
         <v>231</v>
@@ -8597,7 +8604,7 @@
       <c r="U138"/>
       <c r="V138"/>
     </row>
-    <row r="139" spans="1:22" s="2" customFormat="1">
+    <row r="139" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A139" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>417</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G139" s="14">
         <v>232</v>
@@ -8630,7 +8637,7 @@
       <c r="U139"/>
       <c r="V139"/>
     </row>
-    <row r="140" spans="1:22" s="2" customFormat="1">
+    <row r="140" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A140" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8638,7 +8645,7 @@
         <v>420</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G140" s="14">
         <v>233</v>
@@ -8663,7 +8670,7 @@
       <c r="U140"/>
       <c r="V140"/>
     </row>
-    <row r="141" spans="1:22" s="2" customFormat="1">
+    <row r="141" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A141" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8671,7 +8678,7 @@
         <v>423</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G141" s="14">
         <v>234</v>
@@ -8696,7 +8703,7 @@
       <c r="U141"/>
       <c r="V141"/>
     </row>
-    <row r="142" spans="1:22" s="2" customFormat="1">
+    <row r="142" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A142" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>426</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G142" s="14">
         <v>235</v>
@@ -8729,7 +8736,7 @@
       <c r="U142"/>
       <c r="V142"/>
     </row>
-    <row r="143" spans="1:22" s="2" customFormat="1">
+    <row r="143" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A143" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8737,7 +8744,7 @@
         <v>429</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G143" s="14">
         <v>236</v>
@@ -8762,7 +8769,7 @@
       <c r="U143"/>
       <c r="V143"/>
     </row>
-    <row r="144" spans="1:22" s="2" customFormat="1">
+    <row r="144" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A144" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8770,7 +8777,7 @@
         <v>432</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G144" s="14">
         <v>237</v>
@@ -8795,7 +8802,7 @@
       <c r="U144"/>
       <c r="V144"/>
     </row>
-    <row r="145" spans="1:22" s="2" customFormat="1">
+    <row r="145" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A145" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8803,7 +8810,7 @@
         <v>435</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G145" s="14">
         <v>238</v>
@@ -8828,7 +8835,7 @@
       <c r="U145"/>
       <c r="V145"/>
     </row>
-    <row r="146" spans="1:22" s="2" customFormat="1">
+    <row r="146" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A146" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>438</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G146" s="14">
         <v>239</v>
@@ -8861,7 +8868,7 @@
       <c r="U146"/>
       <c r="V146"/>
     </row>
-    <row r="147" spans="1:22" s="2" customFormat="1">
+    <row r="147" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A147" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8894,7 +8901,7 @@
       <c r="U147"/>
       <c r="V147"/>
     </row>
-    <row r="148" spans="1:22" s="2" customFormat="1">
+    <row r="148" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A148" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8927,7 +8934,7 @@
       <c r="U148"/>
       <c r="V148"/>
     </row>
-    <row r="149" spans="1:22" s="2" customFormat="1">
+    <row r="149" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A149" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8960,7 +8967,7 @@
       <c r="U149"/>
       <c r="V149"/>
     </row>
-    <row r="150" spans="1:22" s="2" customFormat="1">
+    <row r="150" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A150" s="2" t="s">
         <v>1159</v>
       </c>
@@ -8993,7 +9000,7 @@
       <c r="U150"/>
       <c r="V150"/>
     </row>
-    <row r="151" spans="1:22" s="2" customFormat="1">
+    <row r="151" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A151" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9026,7 +9033,7 @@
       <c r="U151"/>
       <c r="V151"/>
     </row>
-    <row r="152" spans="1:22" s="2" customFormat="1">
+    <row r="152" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A152" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9059,7 +9066,7 @@
       <c r="U152"/>
       <c r="V152"/>
     </row>
-    <row r="153" spans="1:22" s="2" customFormat="1">
+    <row r="153" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A153" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9092,7 +9099,7 @@
       <c r="U153"/>
       <c r="V153"/>
     </row>
-    <row r="154" spans="1:22" s="2" customFormat="1">
+    <row r="154" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A154" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9125,7 +9132,7 @@
       <c r="U154"/>
       <c r="V154"/>
     </row>
-    <row r="155" spans="1:22" s="2" customFormat="1">
+    <row r="155" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A155" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9158,7 +9165,7 @@
       <c r="U155"/>
       <c r="V155"/>
     </row>
-    <row r="156" spans="1:22" s="2" customFormat="1">
+    <row r="156" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A156" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9191,7 +9198,7 @@
       <c r="U156"/>
       <c r="V156"/>
     </row>
-    <row r="157" spans="1:22" s="2" customFormat="1">
+    <row r="157" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A157" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9224,7 +9231,7 @@
       <c r="U157"/>
       <c r="V157"/>
     </row>
-    <row r="158" spans="1:22" s="2" customFormat="1">
+    <row r="158" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A158" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9257,7 +9264,7 @@
       <c r="U158"/>
       <c r="V158"/>
     </row>
-    <row r="159" spans="1:22" s="2" customFormat="1">
+    <row r="159" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A159" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9290,7 +9297,7 @@
       <c r="U159"/>
       <c r="V159"/>
     </row>
-    <row r="160" spans="1:22" s="2" customFormat="1">
+    <row r="160" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A160" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9323,7 +9330,7 @@
       <c r="U160"/>
       <c r="V160"/>
     </row>
-    <row r="161" spans="1:22" s="2" customFormat="1">
+    <row r="161" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A161" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9356,7 +9363,7 @@
       <c r="U161"/>
       <c r="V161"/>
     </row>
-    <row r="162" spans="1:22" s="2" customFormat="1">
+    <row r="162" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A162" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9389,7 +9396,7 @@
       <c r="U162"/>
       <c r="V162"/>
     </row>
-    <row r="163" spans="1:22" s="2" customFormat="1">
+    <row r="163" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A163" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9422,7 +9429,7 @@
       <c r="U163"/>
       <c r="V163"/>
     </row>
-    <row r="164" spans="1:22" s="2" customFormat="1">
+    <row r="164" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A164" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9455,7 +9462,7 @@
       <c r="U164"/>
       <c r="V164"/>
     </row>
-    <row r="165" spans="1:22" s="2" customFormat="1">
+    <row r="165" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A165" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9488,7 +9495,7 @@
       <c r="U165"/>
       <c r="V165"/>
     </row>
-    <row r="166" spans="1:22" s="2" customFormat="1">
+    <row r="166" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A166" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9521,7 +9528,7 @@
       <c r="U166"/>
       <c r="V166"/>
     </row>
-    <row r="167" spans="1:22" s="2" customFormat="1">
+    <row r="167" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A167" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9554,7 +9561,7 @@
       <c r="U167"/>
       <c r="V167"/>
     </row>
-    <row r="168" spans="1:22" s="2" customFormat="1">
+    <row r="168" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A168" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9587,7 +9594,7 @@
       <c r="U168"/>
       <c r="V168"/>
     </row>
-    <row r="169" spans="1:22" s="2" customFormat="1">
+    <row r="169" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A169" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9620,7 +9627,7 @@
       <c r="U169"/>
       <c r="V169"/>
     </row>
-    <row r="170" spans="1:22" s="2" customFormat="1">
+    <row r="170" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A170" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9653,7 +9660,7 @@
       <c r="U170"/>
       <c r="V170"/>
     </row>
-    <row r="171" spans="1:22" s="2" customFormat="1">
+    <row r="171" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A171" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9686,7 +9693,7 @@
       <c r="U171"/>
       <c r="V171"/>
     </row>
-    <row r="172" spans="1:22" s="2" customFormat="1">
+    <row r="172" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A172" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9719,7 +9726,7 @@
       <c r="U172"/>
       <c r="V172"/>
     </row>
-    <row r="173" spans="1:22" s="2" customFormat="1">
+    <row r="173" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A173" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9752,7 +9759,7 @@
       <c r="U173"/>
       <c r="V173"/>
     </row>
-    <row r="174" spans="1:22" s="2" customFormat="1">
+    <row r="174" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A174" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9785,7 +9792,7 @@
       <c r="U174"/>
       <c r="V174"/>
     </row>
-    <row r="175" spans="1:22" s="2" customFormat="1">
+    <row r="175" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A175" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9818,7 +9825,7 @@
       <c r="U175"/>
       <c r="V175"/>
     </row>
-    <row r="176" spans="1:22" s="2" customFormat="1">
+    <row r="176" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A176" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9851,7 +9858,7 @@
       <c r="U176"/>
       <c r="V176"/>
     </row>
-    <row r="177" spans="1:22" s="2" customFormat="1">
+    <row r="177" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A177" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9884,7 +9891,7 @@
       <c r="U177"/>
       <c r="V177"/>
     </row>
-    <row r="178" spans="1:22" s="2" customFormat="1">
+    <row r="178" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A178" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9917,7 +9924,7 @@
       <c r="U178"/>
       <c r="V178"/>
     </row>
-    <row r="179" spans="1:22" s="2" customFormat="1">
+    <row r="179" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A179" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9950,7 +9957,7 @@
       <c r="U179"/>
       <c r="V179"/>
     </row>
-    <row r="180" spans="1:22" s="2" customFormat="1">
+    <row r="180" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A180" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9983,7 +9990,7 @@
       <c r="U180"/>
       <c r="V180"/>
     </row>
-    <row r="181" spans="1:22" s="2" customFormat="1">
+    <row r="181" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A181" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10016,7 +10023,7 @@
       <c r="U181"/>
       <c r="V181"/>
     </row>
-    <row r="182" spans="1:22" s="2" customFormat="1">
+    <row r="182" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A182" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10049,7 +10056,7 @@
       <c r="U182"/>
       <c r="V182"/>
     </row>
-    <row r="183" spans="1:22" s="2" customFormat="1">
+    <row r="183" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A183" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10082,7 +10089,7 @@
       <c r="U183"/>
       <c r="V183"/>
     </row>
-    <row r="184" spans="1:22" s="2" customFormat="1">
+    <row r="184" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A184" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10115,7 +10122,7 @@
       <c r="U184"/>
       <c r="V184"/>
     </row>
-    <row r="185" spans="1:22" s="2" customFormat="1">
+    <row r="185" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A185" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10148,7 +10155,7 @@
       <c r="U185"/>
       <c r="V185"/>
     </row>
-    <row r="186" spans="1:22" s="2" customFormat="1">
+    <row r="186" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A186" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10181,7 +10188,7 @@
       <c r="U186"/>
       <c r="V186"/>
     </row>
-    <row r="187" spans="1:22" s="2" customFormat="1">
+    <row r="187" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A187" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10214,7 +10221,7 @@
       <c r="U187"/>
       <c r="V187"/>
     </row>
-    <row r="188" spans="1:22" s="2" customFormat="1">
+    <row r="188" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A188" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10247,7 +10254,7 @@
       <c r="U188"/>
       <c r="V188"/>
     </row>
-    <row r="189" spans="1:22" s="2" customFormat="1">
+    <row r="189" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A189" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10280,7 +10287,7 @@
       <c r="U189"/>
       <c r="V189"/>
     </row>
-    <row r="190" spans="1:22" s="2" customFormat="1">
+    <row r="190" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A190" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10313,7 +10320,7 @@
       <c r="U190"/>
       <c r="V190"/>
     </row>
-    <row r="191" spans="1:22" s="2" customFormat="1">
+    <row r="191" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A191" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10346,7 +10353,7 @@
       <c r="U191"/>
       <c r="V191"/>
     </row>
-    <row r="192" spans="1:22" s="2" customFormat="1">
+    <row r="192" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A192" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10379,7 +10386,7 @@
       <c r="U192"/>
       <c r="V192"/>
     </row>
-    <row r="193" spans="1:22" s="2" customFormat="1">
+    <row r="193" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A193" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10412,7 +10419,7 @@
       <c r="U193"/>
       <c r="V193"/>
     </row>
-    <row r="194" spans="1:22" s="2" customFormat="1">
+    <row r="194" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A194" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10445,7 +10452,7 @@
       <c r="U194"/>
       <c r="V194"/>
     </row>
-    <row r="195" spans="1:22" s="2" customFormat="1">
+    <row r="195" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A195" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10478,7 +10485,7 @@
       <c r="U195"/>
       <c r="V195"/>
     </row>
-    <row r="196" spans="1:22" s="2" customFormat="1">
+    <row r="196" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A196" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10511,7 +10518,7 @@
       <c r="U196"/>
       <c r="V196"/>
     </row>
-    <row r="197" spans="1:22" s="2" customFormat="1">
+    <row r="197" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A197" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10544,7 +10551,7 @@
       <c r="U197"/>
       <c r="V197"/>
     </row>
-    <row r="198" spans="1:22" s="2" customFormat="1">
+    <row r="198" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A198" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10577,7 +10584,7 @@
       <c r="U198"/>
       <c r="V198"/>
     </row>
-    <row r="199" spans="1:22" s="2" customFormat="1">
+    <row r="199" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A199" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10610,7 +10617,7 @@
       <c r="U199"/>
       <c r="V199"/>
     </row>
-    <row r="200" spans="1:22" s="2" customFormat="1">
+    <row r="200" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A200" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10643,7 +10650,7 @@
       <c r="U200"/>
       <c r="V200"/>
     </row>
-    <row r="201" spans="1:22" s="2" customFormat="1">
+    <row r="201" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A201" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10676,7 +10683,7 @@
       <c r="U201"/>
       <c r="V201"/>
     </row>
-    <row r="202" spans="1:22" s="2" customFormat="1">
+    <row r="202" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A202" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10709,7 +10716,7 @@
       <c r="U202"/>
       <c r="V202"/>
     </row>
-    <row r="203" spans="1:22" s="2" customFormat="1">
+    <row r="203" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A203" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10742,7 +10749,7 @@
       <c r="U203"/>
       <c r="V203"/>
     </row>
-    <row r="204" spans="1:22" s="2" customFormat="1">
+    <row r="204" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A204" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10775,7 +10782,7 @@
       <c r="U204"/>
       <c r="V204"/>
     </row>
-    <row r="205" spans="1:22" s="2" customFormat="1">
+    <row r="205" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A205" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10808,7 +10815,7 @@
       <c r="U205"/>
       <c r="V205"/>
     </row>
-    <row r="206" spans="1:22" s="2" customFormat="1">
+    <row r="206" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A206" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10841,7 +10848,7 @@
       <c r="U206"/>
       <c r="V206"/>
     </row>
-    <row r="207" spans="1:22" s="2" customFormat="1">
+    <row r="207" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A207" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10874,7 +10881,7 @@
       <c r="U207"/>
       <c r="V207"/>
     </row>
-    <row r="208" spans="1:22" s="2" customFormat="1">
+    <row r="208" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A208" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10882,7 +10889,7 @@
         <v>624</v>
       </c>
       <c r="E208" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G208" s="14">
         <v>301</v>
@@ -10907,7 +10914,7 @@
       <c r="U208"/>
       <c r="V208"/>
     </row>
-    <row r="209" spans="1:22" s="2" customFormat="1">
+    <row r="209" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A209" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10915,7 +10922,7 @@
         <v>627</v>
       </c>
       <c r="E209" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G209" s="14">
         <v>302</v>
@@ -10940,7 +10947,7 @@
       <c r="U209"/>
       <c r="V209"/>
     </row>
-    <row r="210" spans="1:22" s="2" customFormat="1">
+    <row r="210" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A210" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10948,7 +10955,7 @@
         <v>630</v>
       </c>
       <c r="E210" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G210" s="14">
         <v>303</v>
@@ -10973,7 +10980,7 @@
       <c r="U210"/>
       <c r="V210"/>
     </row>
-    <row r="211" spans="1:22" s="2" customFormat="1">
+    <row r="211" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A211" s="2" t="s">
         <v>1159</v>
       </c>
@@ -10981,7 +10988,7 @@
         <v>633</v>
       </c>
       <c r="E211" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G211" s="14">
         <v>304</v>
@@ -11006,7 +11013,7 @@
       <c r="U211"/>
       <c r="V211"/>
     </row>
-    <row r="212" spans="1:22" s="2" customFormat="1">
+    <row r="212" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A212" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11039,7 +11046,7 @@
       <c r="U212"/>
       <c r="V212"/>
     </row>
-    <row r="213" spans="1:22" s="2" customFormat="1">
+    <row r="213" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A213" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11072,7 +11079,7 @@
       <c r="U213"/>
       <c r="V213"/>
     </row>
-    <row r="214" spans="1:22" s="2" customFormat="1">
+    <row r="214" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A214" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11105,7 +11112,7 @@
       <c r="U214"/>
       <c r="V214"/>
     </row>
-    <row r="215" spans="1:22" s="2" customFormat="1">
+    <row r="215" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A215" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11138,7 +11145,7 @@
       <c r="U215"/>
       <c r="V215"/>
     </row>
-    <row r="216" spans="1:22" s="2" customFormat="1">
+    <row r="216" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A216" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11171,7 +11178,7 @@
       <c r="U216"/>
       <c r="V216"/>
     </row>
-    <row r="217" spans="1:22" s="2" customFormat="1">
+    <row r="217" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A217" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11204,7 +11211,7 @@
       <c r="U217"/>
       <c r="V217"/>
     </row>
-    <row r="218" spans="1:22" s="2" customFormat="1">
+    <row r="218" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A218" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11237,7 +11244,7 @@
       <c r="U218"/>
       <c r="V218"/>
     </row>
-    <row r="219" spans="1:22" s="2" customFormat="1">
+    <row r="219" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A219" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11270,7 +11277,7 @@
       <c r="U219"/>
       <c r="V219"/>
     </row>
-    <row r="220" spans="1:22" s="2" customFormat="1">
+    <row r="220" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A220" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11303,7 +11310,7 @@
       <c r="U220"/>
       <c r="V220"/>
     </row>
-    <row r="221" spans="1:22" s="2" customFormat="1">
+    <row r="221" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A221" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11336,7 +11343,7 @@
       <c r="U221"/>
       <c r="V221"/>
     </row>
-    <row r="222" spans="1:22" s="2" customFormat="1">
+    <row r="222" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A222" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11369,7 +11376,7 @@
       <c r="U222"/>
       <c r="V222"/>
     </row>
-    <row r="223" spans="1:22" s="2" customFormat="1">
+    <row r="223" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A223" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11402,7 +11409,7 @@
       <c r="U223"/>
       <c r="V223"/>
     </row>
-    <row r="224" spans="1:22" s="2" customFormat="1">
+    <row r="224" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A224" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11435,7 +11442,7 @@
       <c r="U224"/>
       <c r="V224"/>
     </row>
-    <row r="225" spans="1:22" s="2" customFormat="1">
+    <row r="225" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A225" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11468,7 +11475,7 @@
       <c r="U225"/>
       <c r="V225"/>
     </row>
-    <row r="226" spans="1:22" s="2" customFormat="1">
+    <row r="226" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A226" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11501,7 +11508,7 @@
       <c r="U226"/>
       <c r="V226"/>
     </row>
-    <row r="227" spans="1:22" s="2" customFormat="1">
+    <row r="227" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A227" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11534,7 +11541,7 @@
       <c r="U227"/>
       <c r="V227"/>
     </row>
-    <row r="228" spans="1:22" s="2" customFormat="1">
+    <row r="228" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A228" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11542,7 +11549,7 @@
         <v>684</v>
       </c>
       <c r="E228" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G228" s="14">
         <v>321</v>
@@ -11567,7 +11574,7 @@
       <c r="U228"/>
       <c r="V228"/>
     </row>
-    <row r="229" spans="1:22" s="2" customFormat="1">
+    <row r="229" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A229" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11575,7 +11582,7 @@
         <v>687</v>
       </c>
       <c r="E229" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G229" s="14">
         <v>322</v>
@@ -11600,7 +11607,7 @@
       <c r="U229"/>
       <c r="V229"/>
     </row>
-    <row r="230" spans="1:22" s="2" customFormat="1">
+    <row r="230" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A230" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11633,7 +11640,7 @@
       <c r="U230"/>
       <c r="V230"/>
     </row>
-    <row r="231" spans="1:22" s="2" customFormat="1">
+    <row r="231" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A231" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11666,7 +11673,7 @@
       <c r="U231"/>
       <c r="V231"/>
     </row>
-    <row r="232" spans="1:22" s="2" customFormat="1">
+    <row r="232" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A232" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11699,7 +11706,7 @@
       <c r="U232"/>
       <c r="V232"/>
     </row>
-    <row r="233" spans="1:22" s="2" customFormat="1">
+    <row r="233" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A233" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11732,7 +11739,7 @@
       <c r="U233"/>
       <c r="V233"/>
     </row>
-    <row r="234" spans="1:22" s="2" customFormat="1">
+    <row r="234" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A234" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11765,7 +11772,7 @@
       <c r="U234"/>
       <c r="V234"/>
     </row>
-    <row r="235" spans="1:22" s="2" customFormat="1">
+    <row r="235" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A235" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11798,7 +11805,7 @@
       <c r="U235"/>
       <c r="V235"/>
     </row>
-    <row r="236" spans="1:22" s="2" customFormat="1">
+    <row r="236" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A236" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11831,7 +11838,7 @@
       <c r="U236"/>
       <c r="V236"/>
     </row>
-    <row r="237" spans="1:22" s="2" customFormat="1">
+    <row r="237" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A237" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11864,7 +11871,7 @@
       <c r="U237"/>
       <c r="V237"/>
     </row>
-    <row r="238" spans="1:22" s="2" customFormat="1">
+    <row r="238" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A238" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11897,7 +11904,7 @@
       <c r="U238"/>
       <c r="V238"/>
     </row>
-    <row r="239" spans="1:22" s="2" customFormat="1">
+    <row r="239" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A239" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11930,7 +11937,7 @@
       <c r="U239"/>
       <c r="V239"/>
     </row>
-    <row r="240" spans="1:22" s="2" customFormat="1">
+    <row r="240" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A240" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11963,7 +11970,7 @@
       <c r="U240"/>
       <c r="V240"/>
     </row>
-    <row r="241" spans="1:22" s="2" customFormat="1">
+    <row r="241" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A241" s="2" t="s">
         <v>1159</v>
       </c>
@@ -11996,7 +12003,7 @@
       <c r="U241"/>
       <c r="V241"/>
     </row>
-    <row r="242" spans="1:22" s="2" customFormat="1">
+    <row r="242" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A242" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12029,7 +12036,7 @@
       <c r="U242"/>
       <c r="V242"/>
     </row>
-    <row r="243" spans="1:22" s="2" customFormat="1">
+    <row r="243" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A243" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12062,7 +12069,7 @@
       <c r="U243"/>
       <c r="V243"/>
     </row>
-    <row r="244" spans="1:22" s="2" customFormat="1">
+    <row r="244" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A244" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12095,7 +12102,7 @@
       <c r="U244"/>
       <c r="V244"/>
     </row>
-    <row r="245" spans="1:22" s="2" customFormat="1">
+    <row r="245" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A245" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12128,7 +12135,7 @@
       <c r="U245"/>
       <c r="V245"/>
     </row>
-    <row r="246" spans="1:22" s="2" customFormat="1">
+    <row r="246" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A246" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12161,7 +12168,7 @@
       <c r="U246"/>
       <c r="V246"/>
     </row>
-    <row r="247" spans="1:22" s="2" customFormat="1">
+    <row r="247" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A247" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12194,7 +12201,7 @@
       <c r="U247"/>
       <c r="V247"/>
     </row>
-    <row r="248" spans="1:22" s="2" customFormat="1">
+    <row r="248" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A248" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12227,7 +12234,7 @@
       <c r="U248"/>
       <c r="V248"/>
     </row>
-    <row r="249" spans="1:22" s="2" customFormat="1">
+    <row r="249" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A249" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12260,7 +12267,7 @@
       <c r="U249"/>
       <c r="V249"/>
     </row>
-    <row r="250" spans="1:22" s="2" customFormat="1">
+    <row r="250" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A250" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12293,7 +12300,7 @@
       <c r="U250"/>
       <c r="V250"/>
     </row>
-    <row r="251" spans="1:22" s="2" customFormat="1">
+    <row r="251" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A251" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12326,7 +12333,7 @@
       <c r="U251"/>
       <c r="V251"/>
     </row>
-    <row r="252" spans="1:22" s="2" customFormat="1">
+    <row r="252" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A252" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12359,7 +12366,7 @@
       <c r="U252"/>
       <c r="V252"/>
     </row>
-    <row r="253" spans="1:22" s="2" customFormat="1">
+    <row r="253" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A253" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12392,7 +12399,7 @@
       <c r="U253"/>
       <c r="V253"/>
     </row>
-    <row r="254" spans="1:22" s="2" customFormat="1">
+    <row r="254" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A254" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12425,7 +12432,7 @@
       <c r="U254"/>
       <c r="V254"/>
     </row>
-    <row r="255" spans="1:22" s="2" customFormat="1">
+    <row r="255" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A255" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12458,7 +12465,7 @@
       <c r="U255"/>
       <c r="V255"/>
     </row>
-    <row r="256" spans="1:22" s="2" customFormat="1">
+    <row r="256" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A256" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12491,7 +12498,7 @@
       <c r="U256"/>
       <c r="V256"/>
     </row>
-    <row r="257" spans="1:22" s="2" customFormat="1">
+    <row r="257" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A257" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12524,7 +12531,7 @@
       <c r="U257"/>
       <c r="V257"/>
     </row>
-    <row r="258" spans="1:22" s="2" customFormat="1">
+    <row r="258" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A258" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12557,7 +12564,7 @@
       <c r="U258"/>
       <c r="V258"/>
     </row>
-    <row r="259" spans="1:22" s="2" customFormat="1">
+    <row r="259" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A259" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12590,7 +12597,7 @@
       <c r="U259"/>
       <c r="V259"/>
     </row>
-    <row r="260" spans="1:22" s="2" customFormat="1">
+    <row r="260" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A260" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12623,7 +12630,7 @@
       <c r="U260"/>
       <c r="V260"/>
     </row>
-    <row r="261" spans="1:22" s="2" customFormat="1">
+    <row r="261" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A261" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12656,7 +12663,7 @@
       <c r="U261"/>
       <c r="V261"/>
     </row>
-    <row r="262" spans="1:22" s="2" customFormat="1">
+    <row r="262" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A262" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12689,7 +12696,7 @@
       <c r="U262"/>
       <c r="V262"/>
     </row>
-    <row r="263" spans="1:22" s="2" customFormat="1">
+    <row r="263" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A263" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12722,7 +12729,7 @@
       <c r="U263"/>
       <c r="V263"/>
     </row>
-    <row r="264" spans="1:22" s="2" customFormat="1">
+    <row r="264" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A264" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12755,7 +12762,7 @@
       <c r="U264"/>
       <c r="V264"/>
     </row>
-    <row r="265" spans="1:22" s="2" customFormat="1">
+    <row r="265" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A265" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12788,7 +12795,7 @@
       <c r="U265"/>
       <c r="V265"/>
     </row>
-    <row r="266" spans="1:22" s="2" customFormat="1">
+    <row r="266" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A266" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12821,7 +12828,7 @@
       <c r="U266"/>
       <c r="V266"/>
     </row>
-    <row r="267" spans="1:22" s="2" customFormat="1">
+    <row r="267" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A267" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12854,7 +12861,7 @@
       <c r="U267"/>
       <c r="V267"/>
     </row>
-    <row r="268" spans="1:22" s="2" customFormat="1">
+    <row r="268" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A268" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12887,7 +12894,7 @@
       <c r="U268"/>
       <c r="V268"/>
     </row>
-    <row r="269" spans="1:22" s="2" customFormat="1">
+    <row r="269" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A269" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12920,7 +12927,7 @@
       <c r="U269"/>
       <c r="V269"/>
     </row>
-    <row r="270" spans="1:22" s="2" customFormat="1">
+    <row r="270" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A270" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12953,7 +12960,7 @@
       <c r="U270"/>
       <c r="V270"/>
     </row>
-    <row r="271" spans="1:22" s="2" customFormat="1">
+    <row r="271" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A271" s="2" t="s">
         <v>1159</v>
       </c>
@@ -12986,7 +12993,7 @@
       <c r="U271"/>
       <c r="V271"/>
     </row>
-    <row r="272" spans="1:22" s="2" customFormat="1">
+    <row r="272" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A272" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13019,7 +13026,7 @@
       <c r="U272"/>
       <c r="V272"/>
     </row>
-    <row r="273" spans="1:22" s="2" customFormat="1">
+    <row r="273" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A273" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13052,7 +13059,7 @@
       <c r="U273"/>
       <c r="V273"/>
     </row>
-    <row r="274" spans="1:22" s="2" customFormat="1">
+    <row r="274" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A274" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13085,7 +13092,7 @@
       <c r="U274"/>
       <c r="V274"/>
     </row>
-    <row r="275" spans="1:22" s="2" customFormat="1">
+    <row r="275" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A275" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13118,7 +13125,7 @@
       <c r="U275"/>
       <c r="V275"/>
     </row>
-    <row r="276" spans="1:22" s="2" customFormat="1">
+    <row r="276" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A276" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13151,7 +13158,7 @@
       <c r="U276"/>
       <c r="V276"/>
     </row>
-    <row r="277" spans="1:22" s="2" customFormat="1">
+    <row r="277" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A277" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13184,7 +13191,7 @@
       <c r="U277"/>
       <c r="V277"/>
     </row>
-    <row r="278" spans="1:22" s="2" customFormat="1">
+    <row r="278" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A278" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13217,7 +13224,7 @@
       <c r="U278"/>
       <c r="V278"/>
     </row>
-    <row r="279" spans="1:22" s="2" customFormat="1">
+    <row r="279" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A279" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13250,7 +13257,7 @@
       <c r="U279"/>
       <c r="V279"/>
     </row>
-    <row r="280" spans="1:22" s="2" customFormat="1">
+    <row r="280" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A280" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13283,7 +13290,7 @@
       <c r="U280"/>
       <c r="V280"/>
     </row>
-    <row r="281" spans="1:22" s="2" customFormat="1">
+    <row r="281" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A281" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13316,7 +13323,7 @@
       <c r="U281"/>
       <c r="V281"/>
     </row>
-    <row r="282" spans="1:22" s="2" customFormat="1">
+    <row r="282" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A282" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13349,7 +13356,7 @@
       <c r="U282"/>
       <c r="V282"/>
     </row>
-    <row r="283" spans="1:22" s="2" customFormat="1">
+    <row r="283" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A283" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13382,7 +13389,7 @@
       <c r="U283"/>
       <c r="V283"/>
     </row>
-    <row r="284" spans="1:22" s="2" customFormat="1">
+    <row r="284" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A284" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13415,7 +13422,7 @@
       <c r="U284"/>
       <c r="V284"/>
     </row>
-    <row r="285" spans="1:22" s="2" customFormat="1">
+    <row r="285" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A285" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13448,7 +13455,7 @@
       <c r="U285"/>
       <c r="V285"/>
     </row>
-    <row r="286" spans="1:22" s="2" customFormat="1">
+    <row r="286" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A286" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13481,7 +13488,7 @@
       <c r="U286"/>
       <c r="V286"/>
     </row>
-    <row r="287" spans="1:22" s="2" customFormat="1">
+    <row r="287" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A287" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13514,7 +13521,7 @@
       <c r="U287"/>
       <c r="V287"/>
     </row>
-    <row r="288" spans="1:22" s="2" customFormat="1">
+    <row r="288" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A288" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13547,7 +13554,7 @@
       <c r="U288"/>
       <c r="V288"/>
     </row>
-    <row r="289" spans="1:22" s="2" customFormat="1">
+    <row r="289" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A289" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13580,7 +13587,7 @@
       <c r="U289"/>
       <c r="V289"/>
     </row>
-    <row r="290" spans="1:22" s="2" customFormat="1">
+    <row r="290" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A290" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13613,7 +13620,7 @@
       <c r="U290"/>
       <c r="V290"/>
     </row>
-    <row r="291" spans="1:22" s="2" customFormat="1">
+    <row r="291" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A291" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13646,7 +13653,7 @@
       <c r="U291"/>
       <c r="V291"/>
     </row>
-    <row r="292" spans="1:22" s="2" customFormat="1">
+    <row r="292" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A292" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13679,7 +13686,7 @@
       <c r="U292"/>
       <c r="V292"/>
     </row>
-    <row r="293" spans="1:22" s="2" customFormat="1">
+    <row r="293" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A293" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13712,7 +13719,7 @@
       <c r="U293"/>
       <c r="V293"/>
     </row>
-    <row r="294" spans="1:22" s="2" customFormat="1">
+    <row r="294" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A294" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13745,7 +13752,7 @@
       <c r="U294"/>
       <c r="V294"/>
     </row>
-    <row r="295" spans="1:22" s="2" customFormat="1">
+    <row r="295" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A295" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13778,7 +13785,7 @@
       <c r="U295"/>
       <c r="V295"/>
     </row>
-    <row r="296" spans="1:22" s="2" customFormat="1">
+    <row r="296" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A296" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13811,7 +13818,7 @@
       <c r="U296"/>
       <c r="V296"/>
     </row>
-    <row r="297" spans="1:22" s="2" customFormat="1">
+    <row r="297" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A297" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13844,7 +13851,7 @@
       <c r="U297"/>
       <c r="V297"/>
     </row>
-    <row r="298" spans="1:22" s="2" customFormat="1">
+    <row r="298" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A298" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13877,7 +13884,7 @@
       <c r="U298"/>
       <c r="V298"/>
     </row>
-    <row r="299" spans="1:22" s="2" customFormat="1">
+    <row r="299" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A299" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13910,7 +13917,7 @@
       <c r="U299"/>
       <c r="V299"/>
     </row>
-    <row r="300" spans="1:22" s="2" customFormat="1">
+    <row r="300" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A300" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13943,7 +13950,7 @@
       <c r="U300"/>
       <c r="V300"/>
     </row>
-    <row r="301" spans="1:22" s="2" customFormat="1">
+    <row r="301" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A301" s="2" t="s">
         <v>1159</v>
       </c>
@@ -13976,7 +13983,7 @@
       <c r="U301"/>
       <c r="V301"/>
     </row>
-    <row r="302" spans="1:22" s="2" customFormat="1">
+    <row r="302" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A302" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14009,7 +14016,7 @@
       <c r="U302"/>
       <c r="V302"/>
     </row>
-    <row r="303" spans="1:22" s="2" customFormat="1">
+    <row r="303" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A303" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14042,7 +14049,7 @@
       <c r="U303"/>
       <c r="V303"/>
     </row>
-    <row r="304" spans="1:22" s="2" customFormat="1">
+    <row r="304" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A304" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14075,7 +14082,7 @@
       <c r="U304"/>
       <c r="V304"/>
     </row>
-    <row r="305" spans="1:22" s="2" customFormat="1">
+    <row r="305" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A305" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14108,7 +14115,7 @@
       <c r="U305"/>
       <c r="V305"/>
     </row>
-    <row r="306" spans="1:22" s="2" customFormat="1">
+    <row r="306" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A306" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14141,7 +14148,7 @@
       <c r="U306"/>
       <c r="V306"/>
     </row>
-    <row r="307" spans="1:22" s="2" customFormat="1">
+    <row r="307" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A307" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14174,7 +14181,7 @@
       <c r="U307"/>
       <c r="V307"/>
     </row>
-    <row r="308" spans="1:22" s="2" customFormat="1">
+    <row r="308" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A308" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14207,7 +14214,7 @@
       <c r="U308"/>
       <c r="V308"/>
     </row>
-    <row r="309" spans="1:22" s="2" customFormat="1">
+    <row r="309" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A309" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14240,7 +14247,7 @@
       <c r="U309"/>
       <c r="V309"/>
     </row>
-    <row r="310" spans="1:22" s="2" customFormat="1">
+    <row r="310" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A310" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14273,7 +14280,7 @@
       <c r="U310"/>
       <c r="V310"/>
     </row>
-    <row r="311" spans="1:22" s="2" customFormat="1">
+    <row r="311" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A311" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14306,7 +14313,7 @@
       <c r="U311"/>
       <c r="V311"/>
     </row>
-    <row r="312" spans="1:22" s="2" customFormat="1">
+    <row r="312" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A312" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14339,7 +14346,7 @@
       <c r="U312"/>
       <c r="V312"/>
     </row>
-    <row r="313" spans="1:22" s="2" customFormat="1">
+    <row r="313" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A313" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14372,7 +14379,7 @@
       <c r="U313"/>
       <c r="V313"/>
     </row>
-    <row r="314" spans="1:22" s="2" customFormat="1">
+    <row r="314" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A314" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14405,7 +14412,7 @@
       <c r="U314"/>
       <c r="V314"/>
     </row>
-    <row r="315" spans="1:22" s="2" customFormat="1">
+    <row r="315" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A315" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14438,7 +14445,7 @@
       <c r="U315"/>
       <c r="V315"/>
     </row>
-    <row r="316" spans="1:22" s="2" customFormat="1">
+    <row r="316" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A316" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14471,7 +14478,7 @@
       <c r="U316"/>
       <c r="V316"/>
     </row>
-    <row r="317" spans="1:22" s="2" customFormat="1">
+    <row r="317" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A317" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14504,7 +14511,7 @@
       <c r="U317"/>
       <c r="V317"/>
     </row>
-    <row r="318" spans="1:22" s="2" customFormat="1">
+    <row r="318" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A318" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14537,7 +14544,7 @@
       <c r="U318"/>
       <c r="V318"/>
     </row>
-    <row r="319" spans="1:22" s="2" customFormat="1">
+    <row r="319" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A319" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14570,7 +14577,7 @@
       <c r="U319"/>
       <c r="V319"/>
     </row>
-    <row r="320" spans="1:22" s="2" customFormat="1">
+    <row r="320" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A320" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14603,7 +14610,7 @@
       <c r="U320"/>
       <c r="V320"/>
     </row>
-    <row r="321" spans="1:22" s="2" customFormat="1">
+    <row r="321" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A321" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14636,7 +14643,7 @@
       <c r="U321"/>
       <c r="V321"/>
     </row>
-    <row r="322" spans="1:22" s="2" customFormat="1">
+    <row r="322" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A322" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14669,7 +14676,7 @@
       <c r="U322"/>
       <c r="V322"/>
     </row>
-    <row r="323" spans="1:22" s="2" customFormat="1">
+    <row r="323" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A323" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14702,7 +14709,7 @@
       <c r="U323"/>
       <c r="V323"/>
     </row>
-    <row r="324" spans="1:22" s="2" customFormat="1">
+    <row r="324" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A324" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14735,7 +14742,7 @@
       <c r="U324"/>
       <c r="V324"/>
     </row>
-    <row r="325" spans="1:22" s="2" customFormat="1">
+    <row r="325" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A325" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14768,7 +14775,7 @@
       <c r="U325"/>
       <c r="V325"/>
     </row>
-    <row r="326" spans="1:22" s="2" customFormat="1">
+    <row r="326" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A326" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14801,7 +14808,7 @@
       <c r="U326"/>
       <c r="V326"/>
     </row>
-    <row r="327" spans="1:22" s="2" customFormat="1">
+    <row r="327" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A327" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14834,7 +14841,7 @@
       <c r="U327"/>
       <c r="V327"/>
     </row>
-    <row r="328" spans="1:22" s="2" customFormat="1">
+    <row r="328" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A328" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14867,7 +14874,7 @@
       <c r="U328"/>
       <c r="V328"/>
     </row>
-    <row r="329" spans="1:22" s="2" customFormat="1">
+    <row r="329" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A329" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14900,7 +14907,7 @@
       <c r="U329"/>
       <c r="V329"/>
     </row>
-    <row r="330" spans="1:22" s="2" customFormat="1">
+    <row r="330" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A330" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14908,7 +14915,7 @@
         <v>990</v>
       </c>
       <c r="E330" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G330" s="14">
         <v>423</v>
@@ -14933,7 +14940,7 @@
       <c r="U330"/>
       <c r="V330"/>
     </row>
-    <row r="331" spans="1:22" s="2" customFormat="1">
+    <row r="331" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A331" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14941,7 +14948,7 @@
         <v>993</v>
       </c>
       <c r="E331" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G331" s="14">
         <v>424</v>
@@ -14966,7 +14973,7 @@
       <c r="U331"/>
       <c r="V331"/>
     </row>
-    <row r="332" spans="1:22" s="2" customFormat="1">
+    <row r="332" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A332" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14974,7 +14981,7 @@
         <v>996</v>
       </c>
       <c r="E332" s="26" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="G332" s="14">
         <v>425</v>
@@ -14999,7 +15006,7 @@
       <c r="U332"/>
       <c r="V332"/>
     </row>
-    <row r="333" spans="1:22" s="2" customFormat="1">
+    <row r="333" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A333" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15007,7 +15014,7 @@
         <v>999</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G333" s="14">
         <v>426</v>
@@ -15032,7 +15039,7 @@
       <c r="U333"/>
       <c r="V333"/>
     </row>
-    <row r="334" spans="1:22" s="2" customFormat="1">
+    <row r="334" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A334" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15065,7 +15072,7 @@
       <c r="U334"/>
       <c r="V334"/>
     </row>
-    <row r="335" spans="1:22" s="2" customFormat="1">
+    <row r="335" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A335" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15098,7 +15105,7 @@
       <c r="U335"/>
       <c r="V335"/>
     </row>
-    <row r="336" spans="1:22" s="2" customFormat="1">
+    <row r="336" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A336" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15131,7 +15138,7 @@
       <c r="U336"/>
       <c r="V336"/>
     </row>
-    <row r="337" spans="1:22" s="2" customFormat="1">
+    <row r="337" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A337" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15164,7 +15171,7 @@
       <c r="U337"/>
       <c r="V337"/>
     </row>
-    <row r="338" spans="1:22" s="2" customFormat="1">
+    <row r="338" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A338" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15197,7 +15204,7 @@
       <c r="U338"/>
       <c r="V338"/>
     </row>
-    <row r="339" spans="1:22" s="2" customFormat="1">
+    <row r="339" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A339" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15230,7 +15237,7 @@
       <c r="U339"/>
       <c r="V339"/>
     </row>
-    <row r="340" spans="1:22" s="2" customFormat="1">
+    <row r="340" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A340" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15263,7 +15270,7 @@
       <c r="U340"/>
       <c r="V340"/>
     </row>
-    <row r="341" spans="1:22" s="2" customFormat="1">
+    <row r="341" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A341" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15296,7 +15303,7 @@
       <c r="U341"/>
       <c r="V341"/>
     </row>
-    <row r="342" spans="1:22" s="2" customFormat="1">
+    <row r="342" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A342" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15329,7 +15336,7 @@
       <c r="U342"/>
       <c r="V342"/>
     </row>
-    <row r="343" spans="1:22" s="2" customFormat="1">
+    <row r="343" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A343" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15362,7 +15369,7 @@
       <c r="U343"/>
       <c r="V343"/>
     </row>
-    <row r="344" spans="1:22" s="2" customFormat="1">
+    <row r="344" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A344" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15395,7 +15402,7 @@
       <c r="U344"/>
       <c r="V344"/>
     </row>
-    <row r="345" spans="1:22" s="2" customFormat="1">
+    <row r="345" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A345" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15428,7 +15435,7 @@
       <c r="U345"/>
       <c r="V345"/>
     </row>
-    <row r="346" spans="1:22" s="2" customFormat="1">
+    <row r="346" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A346" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15461,7 +15468,7 @@
       <c r="U346"/>
       <c r="V346"/>
     </row>
-    <row r="347" spans="1:22" s="2" customFormat="1">
+    <row r="347" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A347" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15494,7 +15501,7 @@
       <c r="U347"/>
       <c r="V347"/>
     </row>
-    <row r="348" spans="1:22" s="2" customFormat="1">
+    <row r="348" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A348" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15527,7 +15534,7 @@
       <c r="U348"/>
       <c r="V348"/>
     </row>
-    <row r="349" spans="1:22" s="2" customFormat="1">
+    <row r="349" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A349" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15560,7 +15567,7 @@
       <c r="U349"/>
       <c r="V349"/>
     </row>
-    <row r="350" spans="1:22" s="2" customFormat="1">
+    <row r="350" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A350" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15593,7 +15600,7 @@
       <c r="U350"/>
       <c r="V350"/>
     </row>
-    <row r="351" spans="1:22" s="2" customFormat="1">
+    <row r="351" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A351" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15626,7 +15633,7 @@
       <c r="U351"/>
       <c r="V351"/>
     </row>
-    <row r="352" spans="1:22" s="2" customFormat="1">
+    <row r="352" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A352" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15659,7 +15666,7 @@
       <c r="U352"/>
       <c r="V352"/>
     </row>
-    <row r="353" spans="1:22" s="2" customFormat="1">
+    <row r="353" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A353" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15692,7 +15699,7 @@
       <c r="U353"/>
       <c r="V353"/>
     </row>
-    <row r="354" spans="1:22" s="2" customFormat="1">
+    <row r="354" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A354" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15725,7 +15732,7 @@
       <c r="U354"/>
       <c r="V354"/>
     </row>
-    <row r="355" spans="1:22" s="2" customFormat="1">
+    <row r="355" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A355" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15758,7 +15765,7 @@
       <c r="U355"/>
       <c r="V355"/>
     </row>
-    <row r="356" spans="1:22" s="2" customFormat="1">
+    <row r="356" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A356" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15791,7 +15798,7 @@
       <c r="U356"/>
       <c r="V356"/>
     </row>
-    <row r="357" spans="1:22" s="2" customFormat="1">
+    <row r="357" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A357" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15824,7 +15831,7 @@
       <c r="U357"/>
       <c r="V357"/>
     </row>
-    <row r="358" spans="1:22" s="2" customFormat="1">
+    <row r="358" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A358" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15857,7 +15864,7 @@
       <c r="U358"/>
       <c r="V358"/>
     </row>
-    <row r="359" spans="1:22" s="2" customFormat="1">
+    <row r="359" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A359" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15890,7 +15897,7 @@
       <c r="U359"/>
       <c r="V359"/>
     </row>
-    <row r="360" spans="1:22" s="2" customFormat="1">
+    <row r="360" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A360" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15923,7 +15930,7 @@
       <c r="U360"/>
       <c r="V360"/>
     </row>
-    <row r="361" spans="1:22" s="2" customFormat="1">
+    <row r="361" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A361" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15956,7 +15963,7 @@
       <c r="U361"/>
       <c r="V361"/>
     </row>
-    <row r="362" spans="1:22" s="2" customFormat="1">
+    <row r="362" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A362" s="2" t="s">
         <v>1159</v>
       </c>
@@ -15989,7 +15996,7 @@
       <c r="U362"/>
       <c r="V362"/>
     </row>
-    <row r="363" spans="1:22" s="2" customFormat="1">
+    <row r="363" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A363" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16022,7 +16029,7 @@
       <c r="U363"/>
       <c r="V363"/>
     </row>
-    <row r="364" spans="1:22" s="2" customFormat="1">
+    <row r="364" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A364" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16046,7 +16053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:22" s="2" customFormat="1">
+    <row r="365" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A365" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16070,7 +16077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:22" s="2" customFormat="1">
+    <row r="366" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A366" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16103,7 +16110,7 @@
       <c r="U366"/>
       <c r="V366"/>
     </row>
-    <row r="367" spans="1:22" s="2" customFormat="1">
+    <row r="367" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A367" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16136,7 +16143,7 @@
       <c r="U367"/>
       <c r="V367"/>
     </row>
-    <row r="368" spans="1:22" s="2" customFormat="1">
+    <row r="368" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A368" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16169,7 +16176,7 @@
       <c r="U368"/>
       <c r="V368"/>
     </row>
-    <row r="369" spans="1:22" s="2" customFormat="1">
+    <row r="369" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A369" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16202,7 +16209,7 @@
       <c r="U369"/>
       <c r="V369"/>
     </row>
-    <row r="370" spans="1:22" s="2" customFormat="1">
+    <row r="370" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A370" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16235,7 +16242,7 @@
       <c r="U370"/>
       <c r="V370"/>
     </row>
-    <row r="371" spans="1:22" s="2" customFormat="1">
+    <row r="371" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A371" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16268,7 +16275,7 @@
       <c r="U371"/>
       <c r="V371"/>
     </row>
-    <row r="372" spans="1:22" s="2" customFormat="1">
+    <row r="372" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A372" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16301,7 +16308,7 @@
       <c r="U372"/>
       <c r="V372"/>
     </row>
-    <row r="373" spans="1:22" s="2" customFormat="1">
+    <row r="373" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A373" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16334,7 +16341,7 @@
       <c r="U373"/>
       <c r="V373"/>
     </row>
-    <row r="374" spans="1:22" s="2" customFormat="1">
+    <row r="374" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A374" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16367,7 +16374,7 @@
       <c r="U374"/>
       <c r="V374"/>
     </row>
-    <row r="375" spans="1:22" s="2" customFormat="1">
+    <row r="375" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A375" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16400,7 +16407,7 @@
       <c r="U375"/>
       <c r="V375"/>
     </row>
-    <row r="376" spans="1:22" s="2" customFormat="1">
+    <row r="376" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A376" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16433,7 +16440,7 @@
       <c r="U376"/>
       <c r="V376"/>
     </row>
-    <row r="377" spans="1:22" s="2" customFormat="1">
+    <row r="377" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A377" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16466,7 +16473,7 @@
       <c r="U377"/>
       <c r="V377"/>
     </row>
-    <row r="378" spans="1:22" s="2" customFormat="1">
+    <row r="378" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A378" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16474,7 +16481,7 @@
         <v>1130</v>
       </c>
       <c r="E378" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G378" s="14">
         <v>471</v>
@@ -16499,7 +16506,7 @@
       <c r="U378"/>
       <c r="V378"/>
     </row>
-    <row r="379" spans="1:22" s="2" customFormat="1">
+    <row r="379" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A379" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16507,7 +16514,7 @@
         <v>1133</v>
       </c>
       <c r="E379" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G379" s="14">
         <v>472</v>
@@ -16532,7 +16539,7 @@
       <c r="U379"/>
       <c r="V379"/>
     </row>
-    <row r="380" spans="1:22" s="2" customFormat="1">
+    <row r="380" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A380" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16540,7 +16547,7 @@
         <v>1136</v>
       </c>
       <c r="E380" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G380" s="14">
         <v>473</v>
@@ -16565,7 +16572,7 @@
       <c r="U380"/>
       <c r="V380"/>
     </row>
-    <row r="381" spans="1:22" s="2" customFormat="1">
+    <row r="381" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A381" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16573,7 +16580,7 @@
         <v>1139</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G381" s="14">
         <v>474</v>
@@ -16598,7 +16605,7 @@
       <c r="U381"/>
       <c r="V381"/>
     </row>
-    <row r="382" spans="1:22" s="2" customFormat="1">
+    <row r="382" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A382" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16631,7 +16638,7 @@
       <c r="U382"/>
       <c r="V382"/>
     </row>
-    <row r="383" spans="1:22" s="2" customFormat="1">
+    <row r="383" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A383" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16664,7 +16671,7 @@
       <c r="U383"/>
       <c r="V383"/>
     </row>
-    <row r="384" spans="1:22" s="2" customFormat="1">
+    <row r="384" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A384" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16697,7 +16704,7 @@
       <c r="U384"/>
       <c r="V384"/>
     </row>
-    <row r="385" spans="1:22" s="2" customFormat="1">
+    <row r="385" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A385" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16730,7 +16737,7 @@
       <c r="U385"/>
       <c r="V385"/>
     </row>
-    <row r="386" spans="1:22" s="2" customFormat="1">
+    <row r="386" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A386" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16757,7 +16764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:22" s="2" customFormat="1">
+    <row r="387" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A387" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16784,7 +16791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:22" s="2" customFormat="1">
+    <row r="388" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A388" s="23"/>
       <c r="B388" s="23" t="s">
         <v>1156</v>
